--- a/experience.xlsx
+++ b/experience.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shenyong\工作内容\总结文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shenyong\gitFiles\git_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7FE54-9F5E-48D5-9A70-8A41FD136241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AD5646-5D49-491F-A72A-0705CC7840AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="15" r:id="rId1"/>
@@ -375,17 +375,6 @@
 Exchange
 交换器，用来接收生产者发送的消息并将这些消息路由给服务器中的队列。
 Exchange有4种类型：direct(默认)，fanout, topic, 和headers，不同类型的Exchange转发消息的策略有所区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git merge origin/pb/w15929952879/sy_dev --no-ff
-git push origin HEAD:refs/for/dev
-git remote -v
-git commit --amend
-删除Change-Id之后重新提交
-git reset --soft HEAD
-git reset --hard HEAD
-push rejected ：提交信息是否有规范的？需要使用英文的冒号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -859,6 +848,18 @@
 让下一行空行：CTRL+ENTER
 让光标移到下一行换行：SHIFT+ENTER
 快速定位到接口的实现类：CTRL + ALT+ B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git merge origin/pb/w15929952879/sy_dev --no-ff
+git push origin HEAD:refs/for/dev
+git remote -v
+git commit --amend
+删除Change-Id之后重新提交
+git reset --soft HEAD
+git reset --hard HEAD
+push rejected ：提交信息是否有规范的？需要使用英文的冒号
+git remote add git_file https://github.com/feng298/git_file.git</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1348,7 +1349,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="56" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -1372,16 +1373,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A56D6A-1D95-47CF-86F4-94F7DD7FCBC9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="140" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="154" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1406,20 +1407,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="406" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="364" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="182" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1441,7 +1442,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CFC317-DE96-4B66-B720-CFD63D4E288C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1463,7 +1464,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="111" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1487,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="364" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/experience.xlsx
+++ b/experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shenyong\gitFiles\git_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AD5646-5D49-491F-A72A-0705CC7840AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60D48A7-ACA9-4664-A847-E5AAA0C8EDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <r>
       <t>release</t>
@@ -851,7 +851,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git merge origin/pb/w15929952879/sy_dev --no-ff
+    <t>文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_46622106/article/details/111914231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git merge origin/pb/w15929952879/sy_dev --no-ff
 git push origin HEAD:refs/for/dev
 git remote -v
 git commit --amend
@@ -859,7 +871,8 @@
 git reset --soft HEAD
 git reset --hard HEAD
 push rejected ：提交信息是否有规范的？需要使用英文的冒号
-git remote add git_file https://github.com/feng298/git_file.git</t>
+git remote add git_file https://github.com/feng298/git_file.git
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,7 +880,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,6 +930,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -963,10 +984,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -984,9 +1006,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1002,6 +1026,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2223240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE558C8-7AEC-4B3D-BA8D-AE9FA4ACC418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13684251" y="177800"/>
+          <a:ext cx="6051549" cy="2223240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1371,23 +1444,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A56D6A-1D95-47CF-86F4-94F7DD7FCBC9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.08203125" customWidth="1"/>
+    <col min="2" max="2" width="104.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="154" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="196" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4A777737-BDEA-491B-A656-A72D937D83B6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
